--- a/core/2.0.1/StructureDefinition-be-practitionerrole.xlsx
+++ b/core/2.0.1/StructureDefinition-be-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T14:22:12+00:00</t>
+    <t>2022-09-30T15:02:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/2.0.1/StructureDefinition-be-practitionerrole.xlsx
+++ b/core/2.0.1/StructureDefinition-be-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T15:02:07+00:00</t>
+    <t>2022-09-30T15:05:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/2.0.1/StructureDefinition-be-practitionerrole.xlsx
+++ b/core/2.0.1/StructureDefinition-be-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T15:05:04+00:00</t>
+    <t>2022-09-30T15:26:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/2.0.1/StructureDefinition-be-practitionerrole.xlsx
+++ b/core/2.0.1/StructureDefinition-be-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T19:44:26+00:00</t>
+    <t>2022-09-30T20:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/2.0.1/StructureDefinition-be-practitionerrole.xlsx
+++ b/core/2.0.1/StructureDefinition-be-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T20:02:55+00:00</t>
+    <t>2022-09-30T20:22:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/2.0.1/StructureDefinition-be-practitionerrole.xlsx
+++ b/core/2.0.1/StructureDefinition-be-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T20:22:22+00:00</t>
+    <t>2022-10-03T19:35:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
